--- a/估值分析/A股行业信息汇总.xlsx
+++ b/估值分析/A股行业信息汇总.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\001Xiaofeng\value-investment-backup\估值分析\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\004Investment\value-investment\估值分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="13180" activeTab="4"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="13180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="A股新申万一二三级" sheetId="17" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="ShenWan2Level" sheetId="16" r:id="rId5"/>
     <sheet name="估值-增速与年化收益" sheetId="14" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Extract" localSheetId="1">申万一级!$A$2:$A$31</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="583">
   <si>
     <t>PE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2446,8 +2449,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="115294848"/>
-        <c:axId val="115295408"/>
+        <c:axId val="269775728"/>
+        <c:axId val="269776288"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2892,7 +2895,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115294848"/>
+        <c:axId val="269775728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2965,7 +2968,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115295408"/>
+        <c:crossAx val="269776288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2973,7 +2976,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115295408"/>
+        <c:axId val="269776288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3080,7 +3083,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115294848"/>
+        <c:crossAx val="269775728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4012,8 +4015,8 @@
   <dimension ref="A1:L282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:H1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -13581,6 +13584,80 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="C136:C144"/>
+    <mergeCell ref="B9:B17"/>
+    <mergeCell ref="C9:C17"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="A100:A131"/>
+    <mergeCell ref="B100:B131"/>
+    <mergeCell ref="C100:C131"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="A18:A35"/>
+    <mergeCell ref="B18:B35"/>
+    <mergeCell ref="C18:C35"/>
+    <mergeCell ref="A77:A99"/>
+    <mergeCell ref="B77:B99"/>
+    <mergeCell ref="C77:C99"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="A58:A64"/>
+    <mergeCell ref="B58:B64"/>
+    <mergeCell ref="C58:C64"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A151:A156"/>
+    <mergeCell ref="B151:B156"/>
+    <mergeCell ref="C151:C156"/>
+    <mergeCell ref="A132:A135"/>
+    <mergeCell ref="B132:B135"/>
+    <mergeCell ref="C132:C135"/>
+    <mergeCell ref="B136:B144"/>
+    <mergeCell ref="A136:A144"/>
+    <mergeCell ref="A145:A150"/>
+    <mergeCell ref="B145:B150"/>
+    <mergeCell ref="C145:C150"/>
+    <mergeCell ref="A171:A174"/>
+    <mergeCell ref="B171:B174"/>
+    <mergeCell ref="C171:C174"/>
+    <mergeCell ref="A175:A191"/>
+    <mergeCell ref="B175:B191"/>
+    <mergeCell ref="C175:C191"/>
+    <mergeCell ref="A157:A167"/>
+    <mergeCell ref="B157:B167"/>
+    <mergeCell ref="C157:C167"/>
+    <mergeCell ref="A168:A170"/>
+    <mergeCell ref="B168:B170"/>
+    <mergeCell ref="C168:C170"/>
+    <mergeCell ref="C215:C225"/>
+    <mergeCell ref="A192:A197"/>
+    <mergeCell ref="B192:B197"/>
+    <mergeCell ref="C192:C197"/>
+    <mergeCell ref="A198:A207"/>
+    <mergeCell ref="B198:B207"/>
+    <mergeCell ref="C198:C207"/>
+    <mergeCell ref="A270:A281"/>
+    <mergeCell ref="B270:B281"/>
+    <mergeCell ref="C270:C281"/>
+    <mergeCell ref="A243:A248"/>
+    <mergeCell ref="B243:B248"/>
+    <mergeCell ref="C243:C248"/>
+    <mergeCell ref="A249:A264"/>
+    <mergeCell ref="B249:B264"/>
+    <mergeCell ref="C249:C264"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="A265:A269"/>
@@ -13597,80 +13674,6 @@
     <mergeCell ref="C208:C214"/>
     <mergeCell ref="A215:A225"/>
     <mergeCell ref="B215:B225"/>
-    <mergeCell ref="A270:A281"/>
-    <mergeCell ref="B270:B281"/>
-    <mergeCell ref="C270:C281"/>
-    <mergeCell ref="A243:A248"/>
-    <mergeCell ref="B243:B248"/>
-    <mergeCell ref="C243:C248"/>
-    <mergeCell ref="A249:A264"/>
-    <mergeCell ref="B249:B264"/>
-    <mergeCell ref="C249:C264"/>
-    <mergeCell ref="C215:C225"/>
-    <mergeCell ref="A192:A197"/>
-    <mergeCell ref="B192:B197"/>
-    <mergeCell ref="C192:C197"/>
-    <mergeCell ref="A198:A207"/>
-    <mergeCell ref="B198:B207"/>
-    <mergeCell ref="C198:C207"/>
-    <mergeCell ref="A157:A167"/>
-    <mergeCell ref="B157:B167"/>
-    <mergeCell ref="C157:C167"/>
-    <mergeCell ref="A168:A170"/>
-    <mergeCell ref="B168:B170"/>
-    <mergeCell ref="C168:C170"/>
-    <mergeCell ref="A171:A174"/>
-    <mergeCell ref="B171:B174"/>
-    <mergeCell ref="C171:C174"/>
-    <mergeCell ref="A175:A191"/>
-    <mergeCell ref="B175:B191"/>
-    <mergeCell ref="C175:C191"/>
-    <mergeCell ref="A151:A156"/>
-    <mergeCell ref="B151:B156"/>
-    <mergeCell ref="C151:C156"/>
-    <mergeCell ref="A132:A135"/>
-    <mergeCell ref="B132:B135"/>
-    <mergeCell ref="C132:C135"/>
-    <mergeCell ref="B136:B144"/>
-    <mergeCell ref="A136:A144"/>
-    <mergeCell ref="A145:A150"/>
-    <mergeCell ref="B145:B150"/>
-    <mergeCell ref="C145:C150"/>
-    <mergeCell ref="A18:A35"/>
-    <mergeCell ref="B18:B35"/>
-    <mergeCell ref="C18:C35"/>
-    <mergeCell ref="A77:A99"/>
-    <mergeCell ref="B77:B99"/>
-    <mergeCell ref="C77:C99"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="A58:A64"/>
-    <mergeCell ref="B58:B64"/>
-    <mergeCell ref="C58:C64"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="A100:A131"/>
-    <mergeCell ref="B100:B131"/>
-    <mergeCell ref="C100:C131"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="C136:C144"/>
-    <mergeCell ref="B9:B17"/>
-    <mergeCell ref="C9:C17"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="C50:C53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
@@ -13718,8 +13721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -13734,250 +13737,187 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B2" s="6">
-        <v>9515250000000</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>450</v>
-      </c>
-      <c r="B3" s="6">
-        <v>7875470000000</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="B3" s="6"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" s="6">
-        <v>7548480000000</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>451</v>
-      </c>
-      <c r="B5" s="6">
-        <v>6555390000000</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>452</v>
-      </c>
-      <c r="B6" s="6">
-        <v>6381830000000</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>453</v>
-      </c>
-      <c r="B7" s="6">
-        <v>6241120000000</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>454</v>
-      </c>
-      <c r="B8" s="6">
-        <v>4038400000000</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>455</v>
-      </c>
-      <c r="B9" s="6">
-        <v>3857390000000</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B10" s="6">
-        <v>3798360000000</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>457</v>
-      </c>
-      <c r="B11" s="6">
-        <v>3316690000000</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>458</v>
-      </c>
-      <c r="B12" s="6">
-        <v>3208130000000</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>459</v>
-      </c>
-      <c r="B13" s="6">
-        <v>3101810000000</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>460</v>
-      </c>
-      <c r="B14" s="6">
-        <v>3005220000000</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>461</v>
-      </c>
-      <c r="B15" s="6">
-        <v>2955780000000</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>462</v>
-      </c>
-      <c r="B16" s="6">
-        <v>2861780000000</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="B16" s="6"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>210</v>
       </c>
-      <c r="B17" s="6">
-        <v>2235310000000</v>
-      </c>
+      <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>279</v>
-      </c>
-      <c r="B18" s="6">
-        <v>1812930000000</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>412</v>
-      </c>
-      <c r="B19" s="6">
-        <v>1597850000000</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>463</v>
-      </c>
-      <c r="B20" s="6">
-        <v>1594180000000</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>464</v>
-      </c>
-      <c r="B21" s="6">
-        <v>1542140000000</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>465</v>
-      </c>
-      <c r="B22" s="6">
-        <v>1527340000000</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23" s="6">
-        <v>1269100000000</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="B23" s="6"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>466</v>
-      </c>
-      <c r="B24" s="6">
-        <v>1249470000000</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>467</v>
-      </c>
-      <c r="B25" s="6">
-        <v>1158700000000</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>273</v>
-      </c>
-      <c r="B26" s="6">
-        <v>1053170000000</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>190</v>
-      </c>
-      <c r="B27" s="6">
-        <v>919423000000</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="B27" s="6"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>254</v>
-      </c>
-      <c r="B28" s="6">
-        <v>705964000000</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>468</v>
-      </c>
-      <c r="B29" s="6">
-        <v>568996000000</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>469</v>
-      </c>
-      <c r="B30" s="6">
-        <v>547202000000</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="B30" s="6"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>305</v>
-      </c>
-      <c r="B31" s="6">
-        <v>437033000000</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="B31" s="6"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>409</v>
-      </c>
-      <c r="B32" s="6">
-        <v>110039000000</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -13988,10 +13928,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -14015,1067 +13955,923 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B2">
-        <v>9515248400000</v>
-      </c>
-      <c r="C2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D2">
-        <v>9515248400000</v>
+      <c r="A2" t="str">
+        <f>MID(ShenWan2Level!B1,5,LEN(ShenWan2Level!B1))</f>
+        <v>电子</v>
+      </c>
+      <c r="C2" t="str">
+        <f>ShenWan2Level!A1</f>
+        <v>元件</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3">
-        <v>7548477700000</v>
-      </c>
-      <c r="C3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3">
-        <v>7548477700000</v>
+      <c r="A3" t="str">
+        <f>MID(ShenWan2Level!B2,5,LEN(ShenWan2Level!B2))</f>
+        <v>电子</v>
+      </c>
+      <c r="C3" t="str">
+        <f>ShenWan2Level!A2</f>
+        <v>半导体</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>451</v>
-      </c>
-      <c r="B4">
-        <v>6555388100000</v>
-      </c>
-      <c r="C4" t="s">
-        <v>380</v>
-      </c>
-      <c r="D4">
-        <v>5178670400000</v>
+      <c r="A4" t="str">
+        <f>MID(ShenWan2Level!B3,5,LEN(ShenWan2Level!B3))</f>
+        <v>电子</v>
+      </c>
+      <c r="C4" t="str">
+        <f>ShenWan2Level!A3</f>
+        <v>光学光电子</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B5">
-        <v>6381831200004</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5">
-        <v>3781507900000</v>
+      <c r="A5" t="str">
+        <f>MID(ShenWan2Level!B4,5,LEN(ShenWan2Level!B4))</f>
+        <v>电子</v>
+      </c>
+      <c r="C5" t="str">
+        <f>ShenWan2Level!A4</f>
+        <v>消费电子</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>453</v>
-      </c>
-      <c r="B6">
-        <v>6241119900000</v>
-      </c>
-      <c r="C6" t="s">
-        <v>389</v>
-      </c>
-      <c r="D6">
-        <v>3144176200000</v>
+      <c r="A6" t="str">
+        <f>MID(ShenWan2Level!B5,5,LEN(ShenWan2Level!B5))</f>
+        <v>电子</v>
+      </c>
+      <c r="C6" t="str">
+        <f>ShenWan2Level!A5</f>
+        <v>其他电子</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>453</v>
-      </c>
-      <c r="B7">
-        <v>6241119900001</v>
-      </c>
-      <c r="C7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7">
-        <v>3096943700000</v>
+      <c r="A7" t="str">
+        <f>MID(ShenWan2Level!B6,5,LEN(ShenWan2Level!B6))</f>
+        <v>电子</v>
+      </c>
+      <c r="C7" t="str">
+        <f>ShenWan2Level!A6</f>
+        <v>电子化学品</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>456</v>
-      </c>
-      <c r="B8">
-        <v>3798355220000</v>
-      </c>
-      <c r="C8" t="s">
-        <v>264</v>
-      </c>
-      <c r="D8">
-        <v>2834763800000</v>
+      <c r="A8" t="str">
+        <f>MID(ShenWan2Level!B7,5,LEN(ShenWan2Level!B7))</f>
+        <v>交通运输</v>
+      </c>
+      <c r="C8" t="str">
+        <f>ShenWan2Level!A7</f>
+        <v>物流</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>462</v>
-      </c>
-      <c r="B9">
-        <v>2861780780001</v>
-      </c>
-      <c r="C9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9">
-        <v>2632340700000</v>
+      <c r="A9" t="str">
+        <f>MID(ShenWan2Level!B8,5,LEN(ShenWan2Level!B8))</f>
+        <v>交通运输</v>
+      </c>
+      <c r="C9" t="str">
+        <f>ShenWan2Level!A8</f>
+        <v>港口航运</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>454</v>
-      </c>
-      <c r="B10">
-        <v>4038396000000</v>
-      </c>
-      <c r="C10" t="s">
-        <v>237</v>
-      </c>
-      <c r="D10">
-        <v>2428704000000</v>
+      <c r="A10" t="str">
+        <f>MID(ShenWan2Level!B9,5,LEN(ShenWan2Level!B9))</f>
+        <v>交通运输</v>
+      </c>
+      <c r="C10" t="str">
+        <f>ShenWan2Level!A9</f>
+        <v>公路铁路运输</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>458</v>
-      </c>
-      <c r="B11">
-        <v>3208127190001</v>
-      </c>
-      <c r="C11" t="s">
-        <v>341</v>
-      </c>
-      <c r="D11">
-        <v>2417210000000</v>
+      <c r="A11" t="str">
+        <f>MID(ShenWan2Level!B10,5,LEN(ShenWan2Level!B10))</f>
+        <v>交通运输</v>
+      </c>
+      <c r="C11" t="str">
+        <f>ShenWan2Level!A10</f>
+        <v>机场航运</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>210</v>
-      </c>
-      <c r="B12">
-        <v>2235312700000</v>
-      </c>
-      <c r="C12" t="s">
-        <v>210</v>
-      </c>
-      <c r="D12">
-        <v>2235312700000</v>
+      <c r="A12" t="str">
+        <f>MID(ShenWan2Level!B11,5,LEN(ShenWan2Level!B11))</f>
+        <v>计算机</v>
+      </c>
+      <c r="C12" t="str">
+        <f>ShenWan2Level!A11</f>
+        <v>IT服务</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>450</v>
-      </c>
-      <c r="B13">
-        <v>7875472380005</v>
-      </c>
-      <c r="C13" t="s">
-        <v>251</v>
-      </c>
-      <c r="D13">
-        <v>1946212000000</v>
+      <c r="A13" t="str">
+        <f>MID(ShenWan2Level!B12,5,LEN(ShenWan2Level!B12))</f>
+        <v>计算机</v>
+      </c>
+      <c r="C13" t="str">
+        <f>ShenWan2Level!A12</f>
+        <v>软件开发</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>460</v>
-      </c>
-      <c r="B14">
-        <v>3005220330001</v>
-      </c>
-      <c r="C14" t="s">
-        <v>332</v>
-      </c>
-      <c r="D14">
-        <v>1897411400000</v>
+      <c r="A14" t="str">
+        <f>MID(ShenWan2Level!B13,5,LEN(ShenWan2Level!B13))</f>
+        <v>计算机</v>
+      </c>
+      <c r="C14" t="str">
+        <f>ShenWan2Level!A13</f>
+        <v>计算机设备</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>279</v>
-      </c>
-      <c r="B15">
-        <v>1812933500000</v>
-      </c>
-      <c r="C15" t="s">
-        <v>279</v>
-      </c>
-      <c r="D15">
-        <v>1812933500000</v>
+      <c r="A15" t="str">
+        <f>MID(ShenWan2Level!B14,5,LEN(ShenWan2Level!B14))</f>
+        <v>传媒</v>
+      </c>
+      <c r="C15" t="str">
+        <f>ShenWan2Level!A14</f>
+        <v>影视院线</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>450</v>
-      </c>
-      <c r="B16">
-        <v>7875472380002</v>
-      </c>
-      <c r="C16" t="s">
-        <v>369</v>
-      </c>
-      <c r="D16">
-        <v>1763179700000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>463</v>
-      </c>
-      <c r="B17">
-        <v>1594177400000</v>
-      </c>
-      <c r="C17" t="s">
-        <v>302</v>
-      </c>
-      <c r="D17">
-        <v>1594177400000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>459</v>
-      </c>
-      <c r="B18">
-        <v>3101807395001</v>
-      </c>
-      <c r="C18" t="s">
-        <v>322</v>
-      </c>
-      <c r="D18">
-        <v>1518362700000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>465</v>
-      </c>
-      <c r="B19">
-        <v>1527338105000</v>
-      </c>
-      <c r="C19" t="s">
-        <v>173</v>
-      </c>
-      <c r="D19">
-        <v>1480055400000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>459</v>
-      </c>
-      <c r="B20">
-        <v>3101807395000</v>
-      </c>
-      <c r="C20" t="s">
-        <v>323</v>
-      </c>
-      <c r="D20">
-        <v>1476529500000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>455</v>
-      </c>
-      <c r="B21">
-        <v>3857386100001</v>
-      </c>
-      <c r="C21" t="s">
-        <v>396</v>
-      </c>
-      <c r="D21">
-        <v>1444475000000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>450</v>
-      </c>
-      <c r="B22">
-        <v>7875472380004</v>
-      </c>
-      <c r="C22" t="s">
-        <v>328</v>
-      </c>
-      <c r="D22">
-        <v>1387984000000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>451</v>
-      </c>
-      <c r="B23">
-        <v>6555388100001</v>
-      </c>
-      <c r="C23" t="s">
-        <v>335</v>
-      </c>
-      <c r="D23">
-        <v>1376717700000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>450</v>
-      </c>
-      <c r="B24">
-        <v>7875472380003</v>
-      </c>
-      <c r="C24" t="s">
-        <v>366</v>
-      </c>
-      <c r="D24">
-        <v>1320168840000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25">
-        <v>1269097900000</v>
-      </c>
-      <c r="C25" t="s">
-        <v>149</v>
-      </c>
-      <c r="D25">
-        <v>1269097900000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>461</v>
-      </c>
-      <c r="B26">
-        <v>2955777030003</v>
-      </c>
-      <c r="C26" t="s">
-        <v>197</v>
-      </c>
-      <c r="D26">
-        <v>1247755090000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>461</v>
-      </c>
-      <c r="B27">
-        <v>2955777030000</v>
-      </c>
-      <c r="C27" t="s">
-        <v>358</v>
-      </c>
-      <c r="D27">
-        <v>1232443330000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>452</v>
-      </c>
-      <c r="B28">
-        <v>6381831200000</v>
-      </c>
-      <c r="C28" t="s">
-        <v>354</v>
-      </c>
-      <c r="D28">
-        <v>1213115390000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>412</v>
-      </c>
-      <c r="B29">
-        <v>1597850811003</v>
-      </c>
-      <c r="C29" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29">
-        <v>1148411090000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>460</v>
-      </c>
-      <c r="B30">
-        <v>3005220330000</v>
-      </c>
-      <c r="C30" t="s">
-        <v>385</v>
-      </c>
-      <c r="D30">
-        <v>1107808930000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>450</v>
-      </c>
-      <c r="B31">
-        <v>7875472380000</v>
-      </c>
-      <c r="C31" t="s">
-        <v>390</v>
-      </c>
-      <c r="D31">
-        <v>1068192220000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>273</v>
-      </c>
-      <c r="B32">
-        <v>1053171970000</v>
-      </c>
-      <c r="C32" t="s">
-        <v>273</v>
-      </c>
-      <c r="D32">
-        <v>1053171970000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>466</v>
-      </c>
-      <c r="B33">
-        <v>1249472807001</v>
-      </c>
-      <c r="C33" t="s">
-        <v>296</v>
-      </c>
-      <c r="D33">
-        <v>1010557880000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>456</v>
-      </c>
-      <c r="B34">
-        <v>3798355220001</v>
-      </c>
-      <c r="C34" t="s">
-        <v>263</v>
-      </c>
-      <c r="D34">
-        <v>963591420000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>452</v>
-      </c>
-      <c r="B35">
-        <v>6381831200002</v>
-      </c>
-      <c r="C35" t="s">
-        <v>205</v>
-      </c>
-      <c r="D35">
-        <v>928015040000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>190</v>
-      </c>
-      <c r="B36">
-        <v>919422840000</v>
-      </c>
-      <c r="C36" t="s">
-        <v>190</v>
-      </c>
-      <c r="D36">
-        <v>919422840000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>457</v>
-      </c>
-      <c r="B37">
-        <v>3316686010001</v>
-      </c>
-      <c r="C37" t="s">
-        <v>260</v>
-      </c>
-      <c r="D37">
-        <v>902057130000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>457</v>
-      </c>
-      <c r="B38">
-        <v>3316686010003</v>
-      </c>
-      <c r="C38" t="s">
-        <v>194</v>
-      </c>
-      <c r="D38">
-        <v>889402940000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>455</v>
-      </c>
-      <c r="B39">
-        <v>3857386100003</v>
-      </c>
-      <c r="C39" t="s">
-        <v>347</v>
-      </c>
-      <c r="D39">
-        <v>837119670000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>457</v>
-      </c>
-      <c r="B40">
-        <v>3316686010000</v>
-      </c>
-      <c r="C40" t="s">
-        <v>353</v>
-      </c>
-      <c r="D40">
-        <v>832523440000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>455</v>
-      </c>
-      <c r="B41">
-        <v>3857386100000</v>
-      </c>
-      <c r="C41" t="s">
-        <v>404</v>
-      </c>
-      <c r="D41">
-        <v>816722630000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>454</v>
-      </c>
-      <c r="B42">
-        <v>4038396000002</v>
-      </c>
-      <c r="C42" t="s">
-        <v>220</v>
-      </c>
-      <c r="D42">
-        <v>809338990000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>458</v>
-      </c>
-      <c r="B43">
-        <v>3208127190000</v>
-      </c>
-      <c r="C43" t="s">
-        <v>342</v>
-      </c>
-      <c r="D43">
-        <v>790917190000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>467</v>
-      </c>
-      <c r="B44">
-        <v>1158703840001</v>
-      </c>
-      <c r="C44" t="s">
-        <v>267</v>
-      </c>
-      <c r="D44">
-        <v>762107540000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>254</v>
-      </c>
-      <c r="B45">
-        <v>705963500000</v>
-      </c>
-      <c r="C45" t="s">
-        <v>254</v>
-      </c>
-      <c r="D45">
-        <v>705963500000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>457</v>
-      </c>
-      <c r="B46">
-        <v>3316686010002</v>
-      </c>
-      <c r="C46" t="s">
-        <v>201</v>
-      </c>
-      <c r="D46">
-        <v>692702500000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>454</v>
-      </c>
-      <c r="B47">
-        <v>4038396000001</v>
-      </c>
-      <c r="C47" t="s">
-        <v>231</v>
-      </c>
-      <c r="D47">
-        <v>676443330000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>464</v>
-      </c>
-      <c r="B48">
-        <v>1542136924003</v>
-      </c>
-      <c r="C48" t="s">
-        <v>309</v>
-      </c>
-      <c r="D48">
-        <v>672534020000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>464</v>
-      </c>
-      <c r="B49">
-        <v>1542136924001</v>
-      </c>
-      <c r="C49" t="s">
-        <v>362</v>
-      </c>
-      <c r="D49">
-        <v>585924340000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>455</v>
-      </c>
-      <c r="B50">
-        <v>3857386100004</v>
-      </c>
-      <c r="C50" t="s">
-        <v>183</v>
-      </c>
-      <c r="D50">
-        <v>550669930000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>305</v>
-      </c>
-      <c r="B51">
-        <v>437033390000</v>
-      </c>
-      <c r="C51" t="s">
-        <v>305</v>
-      </c>
-      <c r="D51">
-        <v>437033390000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>450</v>
-      </c>
-      <c r="B52">
-        <v>7875472380001</v>
-      </c>
-      <c r="C52" t="s">
-        <v>373</v>
-      </c>
-      <c r="D52">
-        <v>389735620000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>469</v>
-      </c>
-      <c r="B53">
-        <v>547201630000</v>
-      </c>
-      <c r="C53" t="s">
-        <v>186</v>
-      </c>
-      <c r="D53">
-        <v>310473740000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>412</v>
-      </c>
-      <c r="B54">
-        <v>1597850811001</v>
-      </c>
-      <c r="C54" t="s">
-        <v>357</v>
-      </c>
-      <c r="D54">
-        <v>259756390000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>461</v>
-      </c>
-      <c r="B55">
-        <v>2955777030002</v>
-      </c>
-      <c r="C55" t="s">
-        <v>209</v>
-      </c>
-      <c r="D55">
-        <v>254569300000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>452</v>
-      </c>
-      <c r="B56">
-        <v>6381831200003</v>
-      </c>
-      <c r="C56" t="s">
-        <v>171</v>
-      </c>
-      <c r="D56">
-        <v>248740220000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>469</v>
-      </c>
-      <c r="B57">
-        <v>547201630001</v>
-      </c>
-      <c r="C57" t="s">
-        <v>177</v>
-      </c>
-      <c r="D57">
-        <v>236727890000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>462</v>
-      </c>
-      <c r="B58">
-        <v>2861780780000</v>
-      </c>
-      <c r="C58" t="s">
-        <v>327</v>
-      </c>
-      <c r="D58">
-        <v>229440080000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>467</v>
-      </c>
-      <c r="B59">
-        <v>1158703840002</v>
-      </c>
-      <c r="C59" t="s">
-        <v>142</v>
-      </c>
-      <c r="D59">
-        <v>226028550000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>461</v>
-      </c>
-      <c r="B60">
-        <v>2955777030001</v>
-      </c>
-      <c r="C60" t="s">
-        <v>286</v>
-      </c>
-      <c r="D60">
-        <v>221009310000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>452</v>
-      </c>
-      <c r="B61">
-        <v>6381831200001</v>
-      </c>
-      <c r="C61" t="s">
-        <v>317</v>
-      </c>
-      <c r="D61">
-        <v>210452650000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>455</v>
-      </c>
-      <c r="B62">
-        <v>3857386100002</v>
-      </c>
-      <c r="C62" t="s">
-        <v>374</v>
-      </c>
-      <c r="D62">
-        <v>208398870000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>468</v>
-      </c>
-      <c r="B63">
-        <v>568996419000</v>
-      </c>
-      <c r="C63" t="s">
-        <v>318</v>
-      </c>
-      <c r="D63">
-        <v>191622120000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>464</v>
-      </c>
-      <c r="B64">
-        <v>1542136924000</v>
-      </c>
-      <c r="C64" t="s">
-        <v>391</v>
-      </c>
-      <c r="D64">
-        <v>179127920000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>467</v>
-      </c>
-      <c r="B65">
-        <v>1158703840000</v>
-      </c>
-      <c r="C65" t="s">
-        <v>388</v>
-      </c>
-      <c r="D65">
-        <v>170567750000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>466</v>
-      </c>
-      <c r="B66">
-        <v>1249472807002</v>
-      </c>
-      <c r="C66" t="s">
-        <v>219</v>
-      </c>
-      <c r="D66">
-        <v>145817650000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>468</v>
-      </c>
-      <c r="B67">
-        <v>568996419002</v>
-      </c>
-      <c r="C67" t="s">
-        <v>289</v>
-      </c>
-      <c r="D67">
-        <v>135315910000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>468</v>
-      </c>
-      <c r="B68">
-        <v>568996419001</v>
-      </c>
-      <c r="C68" t="s">
-        <v>293</v>
-      </c>
-      <c r="D68">
-        <v>132386967000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
-        <v>454</v>
-      </c>
-      <c r="B69">
-        <v>4038396000003</v>
-      </c>
-      <c r="C69" t="s">
-        <v>182</v>
-      </c>
-      <c r="D69">
-        <v>123909680000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
-        <v>409</v>
-      </c>
-      <c r="B70">
-        <v>110039150000</v>
-      </c>
-      <c r="C70" t="s">
-        <v>409</v>
-      </c>
-      <c r="D70">
-        <v>110039150000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>468</v>
-      </c>
-      <c r="B71">
-        <v>568996419003</v>
-      </c>
-      <c r="C71" t="s">
-        <v>285</v>
-      </c>
-      <c r="D71">
-        <v>109671422000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
-        <v>412</v>
-      </c>
-      <c r="B72">
-        <v>1597850811002</v>
-      </c>
-      <c r="C72" t="s">
-        <v>216</v>
-      </c>
-      <c r="D72">
-        <v>109567114000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
-        <v>459</v>
-      </c>
-      <c r="B73">
-        <v>3101807395002</v>
-      </c>
-      <c r="C73" t="s">
-        <v>321</v>
-      </c>
-      <c r="D73">
-        <v>106915195000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
-        <v>464</v>
-      </c>
-      <c r="B74">
-        <v>1542136924002</v>
-      </c>
-      <c r="C74" t="s">
-        <v>314</v>
-      </c>
-      <c r="D74">
-        <v>104550644000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
-        <v>466</v>
-      </c>
-      <c r="B75">
-        <v>1249472807000</v>
-      </c>
-      <c r="C75" t="s">
-        <v>301</v>
-      </c>
-      <c r="D75">
-        <v>93097277000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
-        <v>412</v>
-      </c>
-      <c r="B76">
-        <v>1597850811000</v>
-      </c>
-      <c r="C76" t="s">
-        <v>148</v>
-      </c>
-      <c r="D76">
-        <v>80116217000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>465</v>
-      </c>
-      <c r="B77">
-        <v>1527338105001</v>
-      </c>
-      <c r="C77" t="s">
-        <v>172</v>
-      </c>
-      <c r="D77">
-        <v>47282705000</v>
+      <c r="A16" t="str">
+        <f>MID(ShenWan2Level!B15,5,LEN(ShenWan2Level!B15))</f>
+        <v>传媒</v>
+      </c>
+      <c r="C16" t="str">
+        <f>ShenWan2Level!A15</f>
+        <v>游戏</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="str">
+        <f>MID(ShenWan2Level!B16,5,LEN(ShenWan2Level!B16))</f>
+        <v>传媒</v>
+      </c>
+      <c r="C17" t="str">
+        <f>ShenWan2Level!A16</f>
+        <v>文化传媒</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="str">
+        <f>MID(ShenWan2Level!B17,5,LEN(ShenWan2Level!B17))</f>
+        <v>通信</v>
+      </c>
+      <c r="C18" t="str">
+        <f>ShenWan2Level!A17</f>
+        <v>通信设备</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="str">
+        <f>MID(ShenWan2Level!B18,5,LEN(ShenWan2Level!B18))</f>
+        <v>通信</v>
+      </c>
+      <c r="C19" t="str">
+        <f>ShenWan2Level!A18</f>
+        <v>通信服务</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="str">
+        <f>MID(ShenWan2Level!B19,5,LEN(ShenWan2Level!B19))</f>
+        <v>医药生物</v>
+      </c>
+      <c r="C20" t="str">
+        <f>ShenWan2Level!A19</f>
+        <v>医疗服务</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="str">
+        <f>MID(ShenWan2Level!B20,5,LEN(ShenWan2Level!B20))</f>
+        <v>医药生物</v>
+      </c>
+      <c r="C21" t="str">
+        <f>ShenWan2Level!A20</f>
+        <v>化学制药</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="str">
+        <f>MID(ShenWan2Level!B21,5,LEN(ShenWan2Level!B21))</f>
+        <v>医药生物</v>
+      </c>
+      <c r="C22" t="str">
+        <f>ShenWan2Level!A21</f>
+        <v>医疗器械</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="str">
+        <f>MID(ShenWan2Level!B22,5,LEN(ShenWan2Level!B22))</f>
+        <v>医药生物</v>
+      </c>
+      <c r="C23" t="str">
+        <f>ShenWan2Level!A22</f>
+        <v>中药</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="str">
+        <f>MID(ShenWan2Level!B23,5,LEN(ShenWan2Level!B23))</f>
+        <v>医药生物</v>
+      </c>
+      <c r="C24" t="str">
+        <f>ShenWan2Level!A23</f>
+        <v>生物制品</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="str">
+        <f>MID(ShenWan2Level!B24,5,LEN(ShenWan2Level!B24))</f>
+        <v>医药生物</v>
+      </c>
+      <c r="C25" t="str">
+        <f>ShenWan2Level!A24</f>
+        <v>医药商业</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="str">
+        <f>MID(ShenWan2Level!B25,5,LEN(ShenWan2Level!B25))</f>
+        <v>家用电器</v>
+      </c>
+      <c r="C26" t="str">
+        <f>ShenWan2Level!A25</f>
+        <v>厨卫电器</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="str">
+        <f>MID(ShenWan2Level!B26,5,LEN(ShenWan2Level!B26))</f>
+        <v>家用电器</v>
+      </c>
+      <c r="C27" t="str">
+        <f>ShenWan2Level!A26</f>
+        <v>小家电</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="str">
+        <f>MID(ShenWan2Level!B27,5,LEN(ShenWan2Level!B27))</f>
+        <v>家用电器</v>
+      </c>
+      <c r="C28" t="str">
+        <f>ShenWan2Level!A27</f>
+        <v>黑色家电</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="str">
+        <f>MID(ShenWan2Level!B28,5,LEN(ShenWan2Level!B28))</f>
+        <v>家用电器</v>
+      </c>
+      <c r="C29" t="str">
+        <f>ShenWan2Level!A28</f>
+        <v>白色家电</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="str">
+        <f>MID(ShenWan2Level!B29,5,LEN(ShenWan2Level!B29))</f>
+        <v>食品饮料</v>
+      </c>
+      <c r="C30" t="str">
+        <f>ShenWan2Level!A29</f>
+        <v>食品加工制造</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="str">
+        <f>MID(ShenWan2Level!B30,5,LEN(ShenWan2Level!B30))</f>
+        <v>食品饮料</v>
+      </c>
+      <c r="C31" t="str">
+        <f>ShenWan2Level!A30</f>
+        <v>饮料制造</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="str">
+        <f>MID(ShenWan2Level!B31,5,LEN(ShenWan2Level!B31))</f>
+        <v>食品饮料</v>
+      </c>
+      <c r="C32" t="str">
+        <f>ShenWan2Level!A31</f>
+        <v>白酒</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="str">
+        <f>MID(ShenWan2Level!B32,5,LEN(ShenWan2Level!B32))</f>
+        <v>汽车</v>
+      </c>
+      <c r="C33" t="str">
+        <f>ShenWan2Level!A32</f>
+        <v>汽车零部件</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="str">
+        <f>MID(ShenWan2Level!B33,5,LEN(ShenWan2Level!B33))</f>
+        <v>汽车</v>
+      </c>
+      <c r="C34" t="str">
+        <f>ShenWan2Level!A33</f>
+        <v>汽车整车</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="str">
+        <f>MID(ShenWan2Level!B34,5,LEN(ShenWan2Level!B34))</f>
+        <v>汽车</v>
+      </c>
+      <c r="C35" t="str">
+        <f>ShenWan2Level!A34</f>
+        <v>汽车服务及其他</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="str">
+        <f>MID(ShenWan2Level!B35,5,LEN(ShenWan2Level!B35))</f>
+        <v>非银金融</v>
+      </c>
+      <c r="C36" t="str">
+        <f>ShenWan2Level!A35</f>
+        <v>证券</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="str">
+        <f>MID(ShenWan2Level!B36,5,LEN(ShenWan2Level!B36))</f>
+        <v>非银金融</v>
+      </c>
+      <c r="C37" t="str">
+        <f>ShenWan2Level!A36</f>
+        <v>保险</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="str">
+        <f>MID(ShenWan2Level!B37,5,LEN(ShenWan2Level!B37))</f>
+        <v>非银金融</v>
+      </c>
+      <c r="C38" t="str">
+        <f>ShenWan2Level!A37</f>
+        <v>多元金融</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="str">
+        <f>MID(ShenWan2Level!B38,5,LEN(ShenWan2Level!B38))</f>
+        <v>银行</v>
+      </c>
+      <c r="C39" t="str">
+        <f>ShenWan2Level!A38</f>
+        <v>银行</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="str">
+        <f>MID(ShenWan2Level!B39,5,LEN(ShenWan2Level!B39))</f>
+        <v>房地产</v>
+      </c>
+      <c r="C40" t="str">
+        <f>ShenWan2Level!A39</f>
+        <v>房地产</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="str">
+        <f>MID(ShenWan2Level!B40,5,LEN(ShenWan2Level!B40))</f>
+        <v>公用事业</v>
+      </c>
+      <c r="C41" t="str">
+        <f>ShenWan2Level!A40</f>
+        <v>电力</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="str">
+        <f>MID(ShenWan2Level!B41,5,LEN(ShenWan2Level!B41))</f>
+        <v>公用事业</v>
+      </c>
+      <c r="C42" t="str">
+        <f>ShenWan2Level!A41</f>
+        <v>燃气</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="str">
+        <f>MID(ShenWan2Level!B42,5,LEN(ShenWan2Level!B42))</f>
+        <v>商贸零售</v>
+      </c>
+      <c r="C43" t="str">
+        <f>ShenWan2Level!A42</f>
+        <v>零售</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="str">
+        <f>MID(ShenWan2Level!B43,5,LEN(ShenWan2Level!B43))</f>
+        <v>商贸零售</v>
+      </c>
+      <c r="C44" t="str">
+        <f>ShenWan2Level!A43</f>
+        <v>互联网电商</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="str">
+        <f>MID(ShenWan2Level!B44,5,LEN(ShenWan2Level!B44))</f>
+        <v>商贸零售</v>
+      </c>
+      <c r="C45" t="str">
+        <f>ShenWan2Level!A44</f>
+        <v>贸易</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="str">
+        <f>MID(ShenWan2Level!B45,5,LEN(ShenWan2Level!B45))</f>
+        <v>轻工制造</v>
+      </c>
+      <c r="C46" t="str">
+        <f>ShenWan2Level!A45</f>
+        <v>家居用品</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="str">
+        <f>MID(ShenWan2Level!B46,5,LEN(ShenWan2Level!B46))</f>
+        <v>轻工制造</v>
+      </c>
+      <c r="C47" t="str">
+        <f>ShenWan2Level!A46</f>
+        <v>包装印刷</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="str">
+        <f>MID(ShenWan2Level!B47,5,LEN(ShenWan2Level!B47))</f>
+        <v>轻工制造</v>
+      </c>
+      <c r="C48" t="str">
+        <f>ShenWan2Level!A47</f>
+        <v>造纸</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="str">
+        <f>MID(ShenWan2Level!B48,5,LEN(ShenWan2Level!B48))</f>
+        <v>国防军工</v>
+      </c>
+      <c r="C49" t="str">
+        <f>ShenWan2Level!A48</f>
+        <v>军工装备</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="str">
+        <f>MID(ShenWan2Level!B49,5,LEN(ShenWan2Level!B49))</f>
+        <v>国防军工</v>
+      </c>
+      <c r="C50" t="str">
+        <f>ShenWan2Level!A49</f>
+        <v>军工电子</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="str">
+        <f>MID(ShenWan2Level!B50,5,LEN(ShenWan2Level!B50))</f>
+        <v>基础化工</v>
+      </c>
+      <c r="C51" t="str">
+        <f>ShenWan2Level!A50</f>
+        <v>橡胶制品</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="str">
+        <f>MID(ShenWan2Level!B51,5,LEN(ShenWan2Level!B51))</f>
+        <v>基础化工</v>
+      </c>
+      <c r="C52" t="str">
+        <f>ShenWan2Level!A51</f>
+        <v>塑料制品</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="str">
+        <f>MID(ShenWan2Level!B52,5,LEN(ShenWan2Level!B52))</f>
+        <v>基础化工</v>
+      </c>
+      <c r="C53" t="str">
+        <f>ShenWan2Level!A52</f>
+        <v>农化制品</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="str">
+        <f>MID(ShenWan2Level!B53,5,LEN(ShenWan2Level!B53))</f>
+        <v>基础化工</v>
+      </c>
+      <c r="C54" t="str">
+        <f>ShenWan2Level!A53</f>
+        <v>化学制品</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="str">
+        <f>MID(ShenWan2Level!B54,5,LEN(ShenWan2Level!B54))</f>
+        <v>基础化工</v>
+      </c>
+      <c r="C55" t="str">
+        <f>ShenWan2Level!A54</f>
+        <v>化学原料</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="str">
+        <f>MID(ShenWan2Level!B55,5,LEN(ShenWan2Level!B55))</f>
+        <v>基础化工</v>
+      </c>
+      <c r="C56" t="str">
+        <f>ShenWan2Level!A55</f>
+        <v>化学纤维</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="str">
+        <f>MID(ShenWan2Level!B56,5,LEN(ShenWan2Level!B56))</f>
+        <v>基础化工</v>
+      </c>
+      <c r="C57" t="str">
+        <f>ShenWan2Level!A56</f>
+        <v>非金属材料</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="str">
+        <f>MID(ShenWan2Level!B57,5,LEN(ShenWan2Level!B57))</f>
+        <v>社会服务</v>
+      </c>
+      <c r="C58" t="str">
+        <f>ShenWan2Level!A57</f>
+        <v>旅游及酒店</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="str">
+        <f>MID(ShenWan2Level!B58,5,LEN(ShenWan2Level!B58))</f>
+        <v>社会服务</v>
+      </c>
+      <c r="C59" t="str">
+        <f>ShenWan2Level!A58</f>
+        <v>教育</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="str">
+        <f>MID(ShenWan2Level!B59,5,LEN(ShenWan2Level!B59))</f>
+        <v>社会服务</v>
+      </c>
+      <c r="C60" t="str">
+        <f>ShenWan2Level!A59</f>
+        <v>其他社会服务</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="str">
+        <f>MID(ShenWan2Level!B60,5,LEN(ShenWan2Level!B60))</f>
+        <v>纺织服饰</v>
+      </c>
+      <c r="C61" t="str">
+        <f>ShenWan2Level!A60</f>
+        <v>服装家纺</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="str">
+        <f>MID(ShenWan2Level!B61,5,LEN(ShenWan2Level!B61))</f>
+        <v>纺织服饰</v>
+      </c>
+      <c r="C62" t="str">
+        <f>ShenWan2Level!A61</f>
+        <v>纺织制造</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="str">
+        <f>MID(ShenWan2Level!B62,5,LEN(ShenWan2Level!B62))</f>
+        <v>综合</v>
+      </c>
+      <c r="C63" t="str">
+        <f>ShenWan2Level!A62</f>
+        <v>综合</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="str">
+        <f>MID(ShenWan2Level!B63,5,LEN(ShenWan2Level!B63))</f>
+        <v>农林牧渔</v>
+      </c>
+      <c r="C64" t="str">
+        <f>ShenWan2Level!A63</f>
+        <v>种植业与林业</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="str">
+        <f>MID(ShenWan2Level!B64,5,LEN(ShenWan2Level!B64))</f>
+        <v>农林牧渔</v>
+      </c>
+      <c r="C65" t="str">
+        <f>ShenWan2Level!A64</f>
+        <v>农产品加工</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="str">
+        <f>MID(ShenWan2Level!B65,5,LEN(ShenWan2Level!B65))</f>
+        <v>农林牧渔</v>
+      </c>
+      <c r="C66" t="str">
+        <f>ShenWan2Level!A65</f>
+        <v>养殖业</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="str">
+        <f>MID(ShenWan2Level!B66,5,LEN(ShenWan2Level!B66))</f>
+        <v>机械设备</v>
+      </c>
+      <c r="C67" t="str">
+        <f>ShenWan2Level!A66</f>
+        <v>轨交设备</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="str">
+        <f>MID(ShenWan2Level!B67,5,LEN(ShenWan2Level!B67))</f>
+        <v>机械设备</v>
+      </c>
+      <c r="C68" t="str">
+        <f>ShenWan2Level!A67</f>
+        <v>通用设备</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="str">
+        <f>MID(ShenWan2Level!B68,5,LEN(ShenWan2Level!B68))</f>
+        <v>机械设备</v>
+      </c>
+      <c r="C69" t="str">
+        <f>ShenWan2Level!A68</f>
+        <v>专用设备</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="str">
+        <f>MID(ShenWan2Level!B69,5,LEN(ShenWan2Level!B69))</f>
+        <v>机械设备</v>
+      </c>
+      <c r="C70" t="str">
+        <f>ShenWan2Level!A69</f>
+        <v>自动化设备</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="str">
+        <f>MID(ShenWan2Level!B70,5,LEN(ShenWan2Level!B70))</f>
+        <v>机械设备</v>
+      </c>
+      <c r="C71" t="str">
+        <f>ShenWan2Level!A70</f>
+        <v>工程机械</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="str">
+        <f>MID(ShenWan2Level!B71,5,LEN(ShenWan2Level!B71))</f>
+        <v>建筑材料</v>
+      </c>
+      <c r="C72" t="str">
+        <f>ShenWan2Level!A71</f>
+        <v>建筑材料</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="str">
+        <f>MID(ShenWan2Level!B72,5,LEN(ShenWan2Level!B72))</f>
+        <v>建筑装饰</v>
+      </c>
+      <c r="C73" t="str">
+        <f>ShenWan2Level!A72</f>
+        <v>建筑装饰</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="str">
+        <f>MID(ShenWan2Level!B73,5,LEN(ShenWan2Level!B73))</f>
+        <v>煤炭</v>
+      </c>
+      <c r="C74" t="str">
+        <f>ShenWan2Level!A73</f>
+        <v>煤炭开采加工</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="str">
+        <f>MID(ShenWan2Level!B74,5,LEN(ShenWan2Level!B74))</f>
+        <v>石油石化</v>
+      </c>
+      <c r="C75" t="str">
+        <f>ShenWan2Level!A74</f>
+        <v>油气开采及服务</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="str">
+        <f>MID(ShenWan2Level!B75,5,LEN(ShenWan2Level!B75))</f>
+        <v>石油石化</v>
+      </c>
+      <c r="C76" t="str">
+        <f>ShenWan2Level!A75</f>
+        <v>石油加工贸易</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="str">
+        <f>MID(ShenWan2Level!B76,5,LEN(ShenWan2Level!B76))</f>
+        <v>有色金属</v>
+      </c>
+      <c r="C77" t="str">
+        <f>ShenWan2Level!A76</f>
+        <v>小金属</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="str">
+        <f>MID(ShenWan2Level!B77,5,LEN(ShenWan2Level!B77))</f>
+        <v>有色金属</v>
+      </c>
+      <c r="C78" t="str">
+        <f>ShenWan2Level!A77</f>
+        <v>贵金属</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="str">
+        <f>MID(ShenWan2Level!B78,5,LEN(ShenWan2Level!B78))</f>
+        <v>有色金属</v>
+      </c>
+      <c r="C79" t="str">
+        <f>ShenWan2Level!A78</f>
+        <v>工业金属</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="str">
+        <f>MID(ShenWan2Level!B79,5,LEN(ShenWan2Level!B79))</f>
+        <v>有色金属</v>
+      </c>
+      <c r="C80" t="str">
+        <f>ShenWan2Level!A79</f>
+        <v>能源金属</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="str">
+        <f>MID(ShenWan2Level!B80,5,LEN(ShenWan2Level!B80))</f>
+        <v>有色金属</v>
+      </c>
+      <c r="C81" t="str">
+        <f>ShenWan2Level!A80</f>
+        <v>金属新材料</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="str">
+        <f>MID(ShenWan2Level!B81,5,LEN(ShenWan2Level!B81))</f>
+        <v>钢铁</v>
+      </c>
+      <c r="C82" t="str">
+        <f>ShenWan2Level!A81</f>
+        <v>钢铁</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="str">
+        <f>MID(ShenWan2Level!B82,5,LEN(ShenWan2Level!B82))</f>
+        <v>美容护理</v>
+      </c>
+      <c r="C83" t="str">
+        <f>ShenWan2Level!A82</f>
+        <v>美容护理</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="str">
+        <f>MID(ShenWan2Level!B83,5,LEN(ShenWan2Level!B83))</f>
+        <v>环保</v>
+      </c>
+      <c r="C84" t="str">
+        <f>ShenWan2Level!A83</f>
+        <v>环境治理</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="str">
+        <f>MID(ShenWan2Level!B84,5,LEN(ShenWan2Level!B84))</f>
+        <v>环保</v>
+      </c>
+      <c r="C85" t="str">
+        <f>ShenWan2Level!A84</f>
+        <v>环保设备</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="str">
+        <f>MID(ShenWan2Level!B85,5,LEN(ShenWan2Level!B85))</f>
+        <v>电力设备</v>
+      </c>
+      <c r="C86" t="str">
+        <f>ShenWan2Level!A85</f>
+        <v>其他电源设备</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="str">
+        <f>MID(ShenWan2Level!B86,5,LEN(ShenWan2Level!B86))</f>
+        <v>电力设备</v>
+      </c>
+      <c r="C87" t="str">
+        <f>ShenWan2Level!A86</f>
+        <v>光伏设备</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="str">
+        <f>MID(ShenWan2Level!B87,5,LEN(ShenWan2Level!B87))</f>
+        <v>电力设备</v>
+      </c>
+      <c r="C88" t="str">
+        <f>ShenWan2Level!A87</f>
+        <v>风电设备</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="str">
+        <f>MID(ShenWan2Level!B88,5,LEN(ShenWan2Level!B88))</f>
+        <v>电力设备</v>
+      </c>
+      <c r="C89" t="str">
+        <f>ShenWan2Level!A88</f>
+        <v>电网设备</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="str">
+        <f>MID(ShenWan2Level!B89,5,LEN(ShenWan2Level!B89))</f>
+        <v>电力设备</v>
+      </c>
+      <c r="C90" t="str">
+        <f>ShenWan2Level!A89</f>
+        <v>电机</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="str">
+        <f>MID(ShenWan2Level!B90,5,LEN(ShenWan2Level!B90))</f>
+        <v>电力设备</v>
+      </c>
+      <c r="C91" t="str">
+        <f>ShenWan2Level!A90</f>
+        <v>电池</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="str">
+        <f>MID(ShenWan2Level!B91,5,LEN(ShenWan2Level!B91))</f>
+        <v>港股</v>
+      </c>
+      <c r="C92" t="str">
+        <f>ShenWan2Level!A91</f>
+        <v>港股</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="str">
+        <f>MID(ShenWan2Level!B92,5,LEN(ShenWan2Level!B92))</f>
+        <v>北交所</v>
+      </c>
+      <c r="C93" t="str">
+        <f>ShenWan2Level!A92</f>
+        <v>北交所</v>
       </c>
     </row>
   </sheetData>
@@ -15100,8 +14896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F228"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.26953125" defaultRowHeight="14"/>
@@ -19556,7 +19352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
